--- a/results/optimized_dsafnet_time_stats.xlsx
+++ b/results/optimized_dsafnet_time_stats.xlsx
@@ -462,19 +462,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>409.5439326763153</v>
+        <v>8029.442592859268</v>
       </c>
       <c r="B2" t="n">
-        <v>6.825732211271922</v>
+        <v>133.8240432143211</v>
       </c>
       <c r="C2" t="n">
-        <v>58.50375318527222</v>
+        <v>729.586681951176</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>1.025531002877654</v>
+        <v>0.08219748660846647</v>
       </c>
     </row>
   </sheetData>

--- a/results/optimized_dsafnet_time_stats.xlsx
+++ b/results/optimized_dsafnet_time_stats.xlsx
@@ -462,19 +462,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8029.442592859268</v>
+        <v>7730.574239492416</v>
       </c>
       <c r="B2" t="n">
-        <v>133.8240432143211</v>
+        <v>128.8429039915403</v>
       </c>
       <c r="C2" t="n">
-        <v>729.586681951176</v>
+        <v>772.5703779935836</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08219748660846647</v>
+        <v>0.07761389793462425</v>
       </c>
     </row>
   </sheetData>
